--- a/statistiche/bpic2012RandomForestCounterfactualsWithMax_1/203841.xlsx
+++ b/statistiche/bpic2012RandomForestCounterfactualsWithMax_1/203841.xlsx
@@ -458,182 +458,182 @@
       </c>
       <c r="C1" s="1" t="inlineStr">
         <is>
+          <t>W_Beoordelen fraude-SCHEDULE</t>
+        </is>
+      </c>
+      <c r="D1" s="1" t="inlineStr">
+        <is>
+          <t>O_SELECTED-COMPLETE</t>
+        </is>
+      </c>
+      <c r="E1" s="1" t="inlineStr">
+        <is>
+          <t>W_Valideren aanvraag-COMPLETE</t>
+        </is>
+      </c>
+      <c r="F1" s="1" t="inlineStr">
+        <is>
+          <t>W_Beoordelen fraude-START</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>A_ACTIVATED-COMPLETE</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
+          <t>A_APPROVED-COMPLETE</t>
+        </is>
+      </c>
+      <c r="I1" s="1" t="inlineStr">
+        <is>
+          <t>W_Completeren aanvraag-COMPLETE</t>
+        </is>
+      </c>
+      <c r="J1" s="1" t="inlineStr">
+        <is>
+          <t>W_Beoordelen fraude-COMPLETE</t>
+        </is>
+      </c>
+      <c r="K1" s="1" t="inlineStr">
+        <is>
+          <t>A_PARTLYSUBMITTED-COMPLETE</t>
+        </is>
+      </c>
+      <c r="L1" s="1" t="inlineStr">
+        <is>
+          <t>W_Nabellen incomplete dossiers-START</t>
+        </is>
+      </c>
+      <c r="M1" s="1" t="inlineStr">
+        <is>
+          <t>W_Nabellen incomplete dossiers-SCHEDULE</t>
+        </is>
+      </c>
+      <c r="N1" s="1" t="inlineStr">
+        <is>
+          <t>W_Nabellen offertes-START</t>
+        </is>
+      </c>
+      <c r="O1" s="1" t="inlineStr">
+        <is>
+          <t>W_Completeren aanvraag-SCHEDULE</t>
+        </is>
+      </c>
+      <c r="P1" s="1" t="inlineStr">
+        <is>
+          <t>W_Nabellen incomplete dossiers-COMPLETE</t>
+        </is>
+      </c>
+      <c r="Q1" s="1" t="inlineStr">
+        <is>
+          <t>A_SUBMITTED-COMPLETE</t>
+        </is>
+      </c>
+      <c r="R1" s="1" t="inlineStr">
+        <is>
+          <t>A_REGISTERED-COMPLETE</t>
+        </is>
+      </c>
+      <c r="S1" s="1" t="inlineStr">
+        <is>
+          <t>W_Afhandelen leads-SCHEDULE</t>
+        </is>
+      </c>
+      <c r="T1" s="1" t="inlineStr">
+        <is>
+          <t>O_SENT_BACK-COMPLETE</t>
+        </is>
+      </c>
+      <c r="U1" s="1" t="inlineStr">
+        <is>
+          <t>W_Completeren aanvraag-START</t>
+        </is>
+      </c>
+      <c r="V1" s="1" t="inlineStr">
+        <is>
+          <t>W_Afhandelen leads-START</t>
+        </is>
+      </c>
+      <c r="W1" s="1" t="inlineStr">
+        <is>
+          <t>O_CREATED-COMPLETE</t>
+        </is>
+      </c>
+      <c r="X1" s="1" t="inlineStr">
+        <is>
+          <t>O_ACCEPTED-COMPLETE</t>
+        </is>
+      </c>
+      <c r="Y1" s="1" t="inlineStr">
+        <is>
           <t>W_Wijzigen contractgegevens-SCHEDULE</t>
         </is>
       </c>
-      <c r="D1" s="1" t="inlineStr">
-        <is>
-          <t>A_SUBMITTED-COMPLETE</t>
-        </is>
-      </c>
-      <c r="E1" s="1" t="inlineStr">
+      <c r="Z1" s="1" t="inlineStr">
+        <is>
+          <t>A_ACCEPTED-COMPLETE</t>
+        </is>
+      </c>
+      <c r="AA1" s="1" t="inlineStr">
+        <is>
+          <t>W_Nabellen offertes-COMPLETE</t>
+        </is>
+      </c>
+      <c r="AB1" s="1" t="inlineStr">
+        <is>
+          <t>A_PREACCEPTED-COMPLETE</t>
+        </is>
+      </c>
+      <c r="AC1" s="1" t="inlineStr">
+        <is>
+          <t>A_FINALIZED-COMPLETE</t>
+        </is>
+      </c>
+      <c r="AD1" s="1" t="inlineStr">
+        <is>
+          <t>O_DECLINED-COMPLETE</t>
+        </is>
+      </c>
+      <c r="AE1" s="1" t="inlineStr">
+        <is>
+          <t>A_DECLINED-COMPLETE</t>
+        </is>
+      </c>
+      <c r="AF1" s="1" t="inlineStr">
+        <is>
+          <t>A_CANCELLED-COMPLETE</t>
+        </is>
+      </c>
+      <c r="AG1" s="1" t="inlineStr">
+        <is>
+          <t>W_Valideren aanvraag-SCHEDULE</t>
+        </is>
+      </c>
+      <c r="AH1" s="1" t="inlineStr">
+        <is>
+          <t>O_CANCELLED-COMPLETE</t>
+        </is>
+      </c>
+      <c r="AI1" s="1" t="inlineStr">
+        <is>
+          <t>W_Afhandelen leads-COMPLETE</t>
+        </is>
+      </c>
+      <c r="AJ1" s="1" t="inlineStr">
         <is>
           <t>W_Nabellen offertes-SCHEDULE</t>
         </is>
       </c>
-      <c r="F1" s="1" t="inlineStr">
-        <is>
-          <t>W_Beoordelen fraude-START</t>
-        </is>
-      </c>
-      <c r="G1" s="1" t="inlineStr">
-        <is>
-          <t>A_FINALIZED-COMPLETE</t>
-        </is>
-      </c>
-      <c r="H1" s="1" t="inlineStr">
+      <c r="AK1" s="1" t="inlineStr">
+        <is>
+          <t>O_SENT-COMPLETE</t>
+        </is>
+      </c>
+      <c r="AL1" s="1" t="inlineStr">
         <is>
           <t>W_Valideren aanvraag-START</t>
-        </is>
-      </c>
-      <c r="I1" s="1" t="inlineStr">
-        <is>
-          <t>W_Valideren aanvraag-COMPLETE</t>
-        </is>
-      </c>
-      <c r="J1" s="1" t="inlineStr">
-        <is>
-          <t>O_SELECTED-COMPLETE</t>
-        </is>
-      </c>
-      <c r="K1" s="1" t="inlineStr">
-        <is>
-          <t>W_Completeren aanvraag-SCHEDULE</t>
-        </is>
-      </c>
-      <c r="L1" s="1" t="inlineStr">
-        <is>
-          <t>W_Nabellen incomplete dossiers-START</t>
-        </is>
-      </c>
-      <c r="M1" s="1" t="inlineStr">
-        <is>
-          <t>A_DECLINED-COMPLETE</t>
-        </is>
-      </c>
-      <c r="N1" s="1" t="inlineStr">
-        <is>
-          <t>W_Nabellen offertes-COMPLETE</t>
-        </is>
-      </c>
-      <c r="O1" s="1" t="inlineStr">
-        <is>
-          <t>A_APPROVED-COMPLETE</t>
-        </is>
-      </c>
-      <c r="P1" s="1" t="inlineStr">
-        <is>
-          <t>W_Nabellen incomplete dossiers-SCHEDULE</t>
-        </is>
-      </c>
-      <c r="Q1" s="1" t="inlineStr">
-        <is>
-          <t>W_Nabellen incomplete dossiers-COMPLETE</t>
-        </is>
-      </c>
-      <c r="R1" s="1" t="inlineStr">
-        <is>
-          <t>W_Beoordelen fraude-COMPLETE</t>
-        </is>
-      </c>
-      <c r="S1" s="1" t="inlineStr">
-        <is>
-          <t>O_ACCEPTED-COMPLETE</t>
-        </is>
-      </c>
-      <c r="T1" s="1" t="inlineStr">
-        <is>
-          <t>W_Beoordelen fraude-SCHEDULE</t>
-        </is>
-      </c>
-      <c r="U1" s="1" t="inlineStr">
-        <is>
-          <t>W_Afhandelen leads-COMPLETE</t>
-        </is>
-      </c>
-      <c r="V1" s="1" t="inlineStr">
-        <is>
-          <t>A_PREACCEPTED-COMPLETE</t>
-        </is>
-      </c>
-      <c r="W1" s="1" t="inlineStr">
-        <is>
-          <t>O_CANCELLED-COMPLETE</t>
-        </is>
-      </c>
-      <c r="X1" s="1" t="inlineStr">
-        <is>
-          <t>W_Nabellen offertes-START</t>
-        </is>
-      </c>
-      <c r="Y1" s="1" t="inlineStr">
-        <is>
-          <t>A_ACTIVATED-COMPLETE</t>
-        </is>
-      </c>
-      <c r="Z1" s="1" t="inlineStr">
-        <is>
-          <t>A_ACCEPTED-COMPLETE</t>
-        </is>
-      </c>
-      <c r="AA1" s="1" t="inlineStr">
-        <is>
-          <t>O_CREATED-COMPLETE</t>
-        </is>
-      </c>
-      <c r="AB1" s="1" t="inlineStr">
-        <is>
-          <t>W_Afhandelen leads-SCHEDULE</t>
-        </is>
-      </c>
-      <c r="AC1" s="1" t="inlineStr">
-        <is>
-          <t>A_REGISTERED-COMPLETE</t>
-        </is>
-      </c>
-      <c r="AD1" s="1" t="inlineStr">
-        <is>
-          <t>W_Completeren aanvraag-COMPLETE</t>
-        </is>
-      </c>
-      <c r="AE1" s="1" t="inlineStr">
-        <is>
-          <t>A_CANCELLED-COMPLETE</t>
-        </is>
-      </c>
-      <c r="AF1" s="1" t="inlineStr">
-        <is>
-          <t>W_Afhandelen leads-START</t>
-        </is>
-      </c>
-      <c r="AG1" s="1" t="inlineStr">
-        <is>
-          <t>W_Valideren aanvraag-SCHEDULE</t>
-        </is>
-      </c>
-      <c r="AH1" s="1" t="inlineStr">
-        <is>
-          <t>O_DECLINED-COMPLETE</t>
-        </is>
-      </c>
-      <c r="AI1" s="1" t="inlineStr">
-        <is>
-          <t>O_SENT_BACK-COMPLETE</t>
-        </is>
-      </c>
-      <c r="AJ1" s="1" t="inlineStr">
-        <is>
-          <t>W_Completeren aanvraag-START</t>
-        </is>
-      </c>
-      <c r="AK1" s="1" t="inlineStr">
-        <is>
-          <t>O_SENT-COMPLETE</t>
-        </is>
-      </c>
-      <c r="AL1" s="1" t="inlineStr">
-        <is>
-          <t>A_PARTLYSUBMITTED-COMPLETE</t>
         </is>
       </c>
       <c r="AM1" s="1" t="inlineStr">
@@ -665,7 +665,7 @@
         <v>0</v>
       </c>
       <c r="D2" s="2" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E2" s="2" t="n">
         <v>0</v>
@@ -704,7 +704,7 @@
         <v>0</v>
       </c>
       <c r="Q2" s="2" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="R2" s="2" t="n">
         <v>0</v>
@@ -792,7 +792,7 @@
         <v>0</v>
       </c>
       <c r="D3" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E3" t="n">
         <v>0</v>
@@ -831,7 +831,7 @@
         <v>0</v>
       </c>
       <c r="Q3" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="R3" t="n">
         <v>0</v>
@@ -873,10 +873,10 @@
         <v>0</v>
       </c>
       <c r="AE3" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AF3" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AG3" t="n">
         <v>0</v>
@@ -925,7 +925,7 @@
         <v>0</v>
       </c>
       <c r="D4" s="2" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E4" s="2" t="n">
         <v>0</v>
@@ -946,7 +946,7 @@
         <v>0</v>
       </c>
       <c r="K4" s="2" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L4" s="2" t="n">
         <v>0</v>
@@ -964,7 +964,7 @@
         <v>0</v>
       </c>
       <c r="Q4" s="2" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="R4" s="2" t="n">
         <v>0</v>
@@ -1027,7 +1027,7 @@
         <v>0</v>
       </c>
       <c r="AL4" s="2" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AM4" s="2" t="inlineStr">
         <is>
@@ -1052,7 +1052,7 @@
         <v>0</v>
       </c>
       <c r="D5" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E5" t="n">
         <v>0</v>
@@ -1073,7 +1073,7 @@
         <v>0</v>
       </c>
       <c r="K5" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L5" t="n">
         <v>0</v>
@@ -1091,7 +1091,7 @@
         <v>0</v>
       </c>
       <c r="Q5" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="R5" t="n">
         <v>0</v>
@@ -1133,10 +1133,10 @@
         <v>0</v>
       </c>
       <c r="AE5" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AF5" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AG5" t="n">
         <v>0</v>
@@ -1154,7 +1154,7 @@
         <v>0</v>
       </c>
       <c r="AL5" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AM5" t="inlineStr">
         <is>
@@ -1185,7 +1185,7 @@
         <v>0</v>
       </c>
       <c r="D6" s="2" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E6" s="2" t="n">
         <v>0</v>
@@ -1206,7 +1206,7 @@
         <v>0</v>
       </c>
       <c r="K6" s="2" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L6" s="2" t="n">
         <v>0</v>
@@ -1224,13 +1224,13 @@
         <v>0</v>
       </c>
       <c r="Q6" s="2" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="R6" s="2" t="n">
         <v>0</v>
       </c>
       <c r="S6" s="2" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="T6" s="2" t="n">
         <v>0</v>
@@ -1257,7 +1257,7 @@
         <v>0</v>
       </c>
       <c r="AB6" s="2" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AC6" s="2" t="n">
         <v>0</v>
@@ -1287,7 +1287,7 @@
         <v>0</v>
       </c>
       <c r="AL6" s="2" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AM6" s="2" t="inlineStr">
         <is>
@@ -1312,7 +1312,7 @@
         <v>0</v>
       </c>
       <c r="D7" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E7" t="n">
         <v>0</v>
@@ -1333,7 +1333,7 @@
         <v>0</v>
       </c>
       <c r="K7" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L7" t="n">
         <v>0</v>
@@ -1351,13 +1351,13 @@
         <v>0</v>
       </c>
       <c r="Q7" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="R7" t="n">
         <v>0</v>
       </c>
       <c r="S7" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="T7" t="n">
         <v>0</v>
@@ -1378,13 +1378,13 @@
         <v>0</v>
       </c>
       <c r="Z7" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AA7" t="n">
         <v>0</v>
       </c>
       <c r="AB7" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AC7" t="n">
         <v>0</v>
@@ -1411,10 +1411,10 @@
         <v>0</v>
       </c>
       <c r="AK7" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AL7" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AM7" t="inlineStr">
         <is>
@@ -1445,7 +1445,7 @@
         <v>0</v>
       </c>
       <c r="D8" s="2" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E8" s="2" t="n">
         <v>0</v>
@@ -1466,7 +1466,7 @@
         <v>0</v>
       </c>
       <c r="K8" s="2" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L8" s="2" t="n">
         <v>0</v>
@@ -1484,13 +1484,13 @@
         <v>0</v>
       </c>
       <c r="Q8" s="2" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="R8" s="2" t="n">
         <v>0</v>
       </c>
       <c r="S8" s="2" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="T8" s="2" t="n">
         <v>0</v>
@@ -1499,7 +1499,7 @@
         <v>0</v>
       </c>
       <c r="V8" s="2" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="W8" s="2" t="n">
         <v>0</v>
@@ -1517,7 +1517,7 @@
         <v>0</v>
       </c>
       <c r="AB8" s="2" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AC8" s="2" t="n">
         <v>0</v>
@@ -1529,7 +1529,7 @@
         <v>0</v>
       </c>
       <c r="AF8" s="2" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AG8" s="2" t="n">
         <v>0</v>
@@ -1547,7 +1547,7 @@
         <v>0</v>
       </c>
       <c r="AL8" s="2" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AM8" s="2" t="inlineStr">
         <is>
@@ -1569,10 +1569,10 @@
       <c r="A9" t="inlineStr"/>
       <c r="B9" t="inlineStr"/>
       <c r="C9" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D9" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E9" t="n">
         <v>0</v>
@@ -1617,7 +1617,7 @@
         <v>0</v>
       </c>
       <c r="S9" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="T9" t="n">
         <v>0</v>
@@ -1626,7 +1626,7 @@
         <v>0</v>
       </c>
       <c r="V9" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="W9" t="n">
         <v>0</v>
@@ -1644,7 +1644,7 @@
         <v>0</v>
       </c>
       <c r="AB9" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AC9" t="n">
         <v>0</v>
@@ -1674,7 +1674,7 @@
         <v>0</v>
       </c>
       <c r="AL9" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AM9" t="inlineStr">
         <is>
@@ -1705,7 +1705,7 @@
         <v>0</v>
       </c>
       <c r="D10" s="2" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E10" s="2" t="n">
         <v>0</v>
@@ -1726,7 +1726,7 @@
         <v>0</v>
       </c>
       <c r="K10" s="2" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L10" s="2" t="n">
         <v>0</v>
@@ -1744,13 +1744,13 @@
         <v>0</v>
       </c>
       <c r="Q10" s="2" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="R10" s="2" t="n">
         <v>0</v>
       </c>
       <c r="S10" s="2" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="T10" s="2" t="n">
         <v>0</v>
@@ -1789,7 +1789,7 @@
         <v>0</v>
       </c>
       <c r="AF10" s="2" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AG10" s="2" t="n">
         <v>0</v>
@@ -1807,7 +1807,7 @@
         <v>0</v>
       </c>
       <c r="AL10" s="2" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AM10" s="2" t="inlineStr">
         <is>
@@ -1832,7 +1832,7 @@
         <v>0</v>
       </c>
       <c r="D11" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E11" t="n">
         <v>0</v>
@@ -1853,13 +1853,13 @@
         <v>0</v>
       </c>
       <c r="K11" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L11" t="n">
         <v>0</v>
       </c>
       <c r="M11" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="N11" t="n">
         <v>0</v>
@@ -1871,16 +1871,16 @@
         <v>0</v>
       </c>
       <c r="Q11" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="R11" t="n">
         <v>0</v>
       </c>
       <c r="S11" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="T11" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="U11" t="n">
         <v>0</v>
@@ -1910,13 +1910,13 @@
         <v>0</v>
       </c>
       <c r="AD11" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AE11" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AF11" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AG11" t="n">
         <v>0</v>
@@ -1934,7 +1934,7 @@
         <v>0</v>
       </c>
       <c r="AL11" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AM11" t="inlineStr">
         <is>
@@ -1965,7 +1965,7 @@
         <v>0</v>
       </c>
       <c r="D12" s="2" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E12" s="2" t="n">
         <v>0</v>
@@ -1998,19 +1998,19 @@
         <v>0</v>
       </c>
       <c r="O12" s="2" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="P12" s="2" t="n">
         <v>0</v>
       </c>
       <c r="Q12" s="2" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="R12" s="2" t="n">
         <v>0</v>
       </c>
       <c r="S12" s="2" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="T12" s="2" t="n">
         <v>0</v>
@@ -2049,7 +2049,7 @@
         <v>0</v>
       </c>
       <c r="AF12" s="2" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AG12" s="2" t="n">
         <v>0</v>
@@ -2067,7 +2067,7 @@
         <v>0</v>
       </c>
       <c r="AL12" s="2" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AM12" s="2" t="inlineStr">
         <is>
@@ -2089,10 +2089,10 @@
       <c r="A13" t="inlineStr"/>
       <c r="B13" t="inlineStr"/>
       <c r="C13" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D13" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E13" t="n">
         <v>0</v>
@@ -2116,7 +2116,7 @@
         <v>1</v>
       </c>
       <c r="L13" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="M13" t="n">
         <v>0</v>
@@ -2125,19 +2125,19 @@
         <v>0</v>
       </c>
       <c r="O13" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="P13" t="n">
         <v>0</v>
       </c>
       <c r="Q13" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="R13" t="n">
         <v>0</v>
       </c>
       <c r="S13" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="T13" t="n">
         <v>0</v>
@@ -2173,16 +2173,16 @@
         <v>0</v>
       </c>
       <c r="AE13" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AF13" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AG13" t="n">
         <v>0</v>
       </c>
       <c r="AH13" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AI13" t="n">
         <v>0</v>
@@ -2194,7 +2194,7 @@
         <v>0</v>
       </c>
       <c r="AL13" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AM13" t="inlineStr">
         <is>
@@ -2225,7 +2225,7 @@
         <v>0</v>
       </c>
       <c r="D14" s="2" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E14" s="2" t="n">
         <v>0</v>
@@ -2258,25 +2258,25 @@
         <v>0</v>
       </c>
       <c r="O14" s="2" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="P14" s="2" t="n">
         <v>0</v>
       </c>
       <c r="Q14" s="2" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="R14" s="2" t="n">
         <v>0</v>
       </c>
       <c r="S14" s="2" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="T14" s="2" t="n">
         <v>0</v>
       </c>
       <c r="U14" s="2" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="V14" s="2" t="n">
         <v>1</v>
@@ -2309,7 +2309,7 @@
         <v>0</v>
       </c>
       <c r="AF14" s="2" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AG14" s="2" t="n">
         <v>0</v>
@@ -2318,7 +2318,7 @@
         <v>0</v>
       </c>
       <c r="AI14" s="2" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AJ14" s="2" t="n">
         <v>0</v>
@@ -2327,7 +2327,7 @@
         <v>0</v>
       </c>
       <c r="AL14" s="2" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AM14" s="2" t="inlineStr">
         <is>
@@ -2352,7 +2352,7 @@
         <v>0</v>
       </c>
       <c r="D15" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E15" t="n">
         <v>0</v>
@@ -2367,7 +2367,7 @@
         <v>0</v>
       </c>
       <c r="I15" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J15" t="n">
         <v>0</v>
@@ -2376,7 +2376,7 @@
         <v>1</v>
       </c>
       <c r="L15" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="M15" t="n">
         <v>0</v>
@@ -2385,25 +2385,25 @@
         <v>0</v>
       </c>
       <c r="O15" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="P15" t="n">
         <v>0</v>
       </c>
       <c r="Q15" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="R15" t="n">
         <v>0</v>
       </c>
       <c r="S15" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="T15" t="n">
         <v>0</v>
       </c>
       <c r="U15" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="V15" t="n">
         <v>1</v>
@@ -2436,7 +2436,7 @@
         <v>1</v>
       </c>
       <c r="AF15" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AG15" t="n">
         <v>0</v>
@@ -2445,7 +2445,7 @@
         <v>0</v>
       </c>
       <c r="AI15" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AJ15" t="n">
         <v>0</v>
@@ -2454,7 +2454,7 @@
         <v>0</v>
       </c>
       <c r="AL15" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AM15" t="inlineStr">
         <is>
@@ -2485,7 +2485,7 @@
         <v>0</v>
       </c>
       <c r="D16" s="2" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E16" s="2" t="n">
         <v>0</v>
@@ -2518,19 +2518,19 @@
         <v>0</v>
       </c>
       <c r="O16" s="2" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="P16" s="2" t="n">
         <v>0</v>
       </c>
       <c r="Q16" s="2" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="R16" s="2" t="n">
         <v>0</v>
       </c>
       <c r="S16" s="2" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="T16" s="2" t="n">
         <v>0</v>
@@ -2569,7 +2569,7 @@
         <v>0</v>
       </c>
       <c r="AF16" s="2" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AG16" s="2" t="n">
         <v>0</v>
@@ -2578,16 +2578,16 @@
         <v>0</v>
       </c>
       <c r="AI16" s="2" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AJ16" s="2" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AK16" s="2" t="n">
         <v>0</v>
       </c>
       <c r="AL16" s="2" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AM16" s="2" t="inlineStr">
         <is>
@@ -2612,7 +2612,7 @@
         <v>0</v>
       </c>
       <c r="D17" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E17" t="n">
         <v>0</v>
@@ -2636,7 +2636,7 @@
         <v>1</v>
       </c>
       <c r="L17" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="M17" t="n">
         <v>0</v>
@@ -2645,25 +2645,25 @@
         <v>0</v>
       </c>
       <c r="O17" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="P17" t="n">
         <v>0</v>
       </c>
       <c r="Q17" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="R17" t="n">
         <v>0</v>
       </c>
       <c r="S17" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="T17" t="n">
         <v>0</v>
       </c>
       <c r="U17" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="V17" t="n">
         <v>1</v>
@@ -2696,7 +2696,7 @@
         <v>1</v>
       </c>
       <c r="AF17" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AG17" t="n">
         <v>0</v>
@@ -2705,16 +2705,16 @@
         <v>0</v>
       </c>
       <c r="AI17" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AJ17" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AK17" t="n">
         <v>0</v>
       </c>
       <c r="AL17" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AM17" t="inlineStr">
         <is>
@@ -2745,7 +2745,7 @@
         <v>0</v>
       </c>
       <c r="D18" s="2" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E18" s="2" t="n">
         <v>0</v>
@@ -2760,7 +2760,7 @@
         <v>0</v>
       </c>
       <c r="I18" s="2" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J18" s="2" t="n">
         <v>0</v>
@@ -2778,19 +2778,19 @@
         <v>0</v>
       </c>
       <c r="O18" s="2" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="P18" s="2" t="n">
         <v>0</v>
       </c>
       <c r="Q18" s="2" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="R18" s="2" t="n">
         <v>0</v>
       </c>
       <c r="S18" s="2" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="T18" s="2" t="n">
         <v>0</v>
@@ -2823,13 +2823,13 @@
         <v>0</v>
       </c>
       <c r="AD18" s="2" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AE18" s="2" t="n">
         <v>0</v>
       </c>
       <c r="AF18" s="2" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AG18" s="2" t="n">
         <v>0</v>
@@ -2838,16 +2838,16 @@
         <v>0</v>
       </c>
       <c r="AI18" s="2" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AJ18" s="2" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AK18" s="2" t="n">
         <v>0</v>
       </c>
       <c r="AL18" s="2" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AM18" s="2" t="inlineStr">
         <is>
@@ -2872,7 +2872,7 @@
         <v>0</v>
       </c>
       <c r="D19" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E19" t="n">
         <v>0</v>
@@ -2887,7 +2887,7 @@
         <v>0</v>
       </c>
       <c r="I19" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J19" t="n">
         <v>0</v>
@@ -2905,19 +2905,19 @@
         <v>0</v>
       </c>
       <c r="O19" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="P19" t="n">
         <v>0</v>
       </c>
       <c r="Q19" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="R19" t="n">
         <v>0</v>
       </c>
       <c r="S19" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="T19" t="n">
         <v>0</v>
@@ -2950,13 +2950,13 @@
         <v>0</v>
       </c>
       <c r="AD19" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AE19" t="n">
         <v>1</v>
       </c>
       <c r="AF19" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AG19" t="n">
         <v>0</v>
@@ -2965,16 +2965,16 @@
         <v>0</v>
       </c>
       <c r="AI19" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AJ19" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AK19" t="n">
         <v>0</v>
       </c>
       <c r="AL19" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AM19" t="inlineStr">
         <is>
@@ -3005,7 +3005,7 @@
         <v>0</v>
       </c>
       <c r="D20" s="2" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E20" s="2" t="n">
         <v>0</v>
@@ -3020,7 +3020,7 @@
         <v>0</v>
       </c>
       <c r="I20" s="2" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J20" s="2" t="n">
         <v>0</v>
@@ -3038,25 +3038,25 @@
         <v>0</v>
       </c>
       <c r="O20" s="2" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="P20" s="2" t="n">
         <v>0</v>
       </c>
       <c r="Q20" s="2" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="R20" s="2" t="n">
         <v>0</v>
       </c>
       <c r="S20" s="2" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="T20" s="2" t="n">
         <v>0</v>
       </c>
       <c r="U20" s="2" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="V20" s="2" t="n">
         <v>1</v>
@@ -3083,13 +3083,13 @@
         <v>0</v>
       </c>
       <c r="AD20" s="2" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AE20" s="2" t="n">
         <v>0</v>
       </c>
       <c r="AF20" s="2" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AG20" s="2" t="n">
         <v>0</v>
@@ -3098,16 +3098,16 @@
         <v>0</v>
       </c>
       <c r="AI20" s="2" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AJ20" s="2" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="AK20" s="2" t="n">
         <v>0</v>
       </c>
       <c r="AL20" s="2" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AM20" s="2" t="inlineStr">
         <is>
@@ -3132,7 +3132,7 @@
         <v>0</v>
       </c>
       <c r="D21" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E21" t="n">
         <v>0</v>
@@ -3147,7 +3147,7 @@
         <v>0</v>
       </c>
       <c r="I21" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J21" t="n">
         <v>0</v>
@@ -3165,25 +3165,25 @@
         <v>0</v>
       </c>
       <c r="O21" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="P21" t="n">
         <v>0</v>
       </c>
       <c r="Q21" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="R21" t="n">
         <v>0</v>
       </c>
       <c r="S21" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="T21" t="n">
         <v>0</v>
       </c>
       <c r="U21" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="V21" t="n">
         <v>1</v>
@@ -3213,10 +3213,10 @@
         <v>1</v>
       </c>
       <c r="AE21" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AF21" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AG21" t="n">
         <v>0</v>
@@ -3225,16 +3225,16 @@
         <v>0</v>
       </c>
       <c r="AI21" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AJ21" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="AK21" t="n">
         <v>0</v>
       </c>
       <c r="AL21" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AM21" t="inlineStr">
         <is>
@@ -3265,7 +3265,7 @@
         <v>0</v>
       </c>
       <c r="D22" s="2" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E22" s="2" t="n">
         <v>0</v>
@@ -3280,7 +3280,7 @@
         <v>0</v>
       </c>
       <c r="I22" s="2" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="J22" s="2" t="n">
         <v>0</v>
@@ -3298,25 +3298,25 @@
         <v>0</v>
       </c>
       <c r="O22" s="2" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="P22" s="2" t="n">
         <v>0</v>
       </c>
       <c r="Q22" s="2" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="R22" s="2" t="n">
         <v>0</v>
       </c>
       <c r="S22" s="2" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="T22" s="2" t="n">
         <v>0</v>
       </c>
       <c r="U22" s="2" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="V22" s="2" t="n">
         <v>1</v>
@@ -3343,13 +3343,13 @@
         <v>0</v>
       </c>
       <c r="AD22" s="2" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="AE22" s="2" t="n">
         <v>0</v>
       </c>
       <c r="AF22" s="2" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AG22" s="2" t="n">
         <v>0</v>
@@ -3358,16 +3358,16 @@
         <v>0</v>
       </c>
       <c r="AI22" s="2" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AJ22" s="2" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="AK22" s="2" t="n">
         <v>0</v>
       </c>
       <c r="AL22" s="2" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AM22" s="2" t="inlineStr">
         <is>
@@ -3392,7 +3392,7 @@
         <v>0</v>
       </c>
       <c r="D23" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E23" t="n">
         <v>0</v>
@@ -3407,7 +3407,7 @@
         <v>0</v>
       </c>
       <c r="I23" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="J23" t="n">
         <v>0</v>
@@ -3425,25 +3425,25 @@
         <v>0</v>
       </c>
       <c r="O23" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="P23" t="n">
         <v>0</v>
       </c>
       <c r="Q23" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="R23" t="n">
         <v>0</v>
       </c>
       <c r="S23" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="T23" t="n">
         <v>0</v>
       </c>
       <c r="U23" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="V23" t="n">
         <v>1</v>
@@ -3470,13 +3470,13 @@
         <v>0</v>
       </c>
       <c r="AD23" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="AE23" t="n">
         <v>1</v>
       </c>
       <c r="AF23" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AG23" t="n">
         <v>0</v>
@@ -3485,16 +3485,16 @@
         <v>0</v>
       </c>
       <c r="AI23" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AJ23" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="AK23" t="n">
         <v>0</v>
       </c>
       <c r="AL23" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AM23" t="inlineStr">
         <is>
@@ -3525,7 +3525,7 @@
         <v>0</v>
       </c>
       <c r="D24" s="2" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E24" s="2" t="n">
         <v>0</v>
@@ -3540,7 +3540,7 @@
         <v>0</v>
       </c>
       <c r="I24" s="2" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="J24" s="2" t="n">
         <v>0</v>
@@ -3558,25 +3558,25 @@
         <v>0</v>
       </c>
       <c r="O24" s="2" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="P24" s="2" t="n">
         <v>0</v>
       </c>
       <c r="Q24" s="2" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="R24" s="2" t="n">
         <v>0</v>
       </c>
       <c r="S24" s="2" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="T24" s="2" t="n">
         <v>0</v>
       </c>
       <c r="U24" s="2" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="V24" s="2" t="n">
         <v>1</v>
@@ -3603,13 +3603,13 @@
         <v>0</v>
       </c>
       <c r="AD24" s="2" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="AE24" s="2" t="n">
         <v>0</v>
       </c>
       <c r="AF24" s="2" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AG24" s="2" t="n">
         <v>0</v>
@@ -3618,16 +3618,16 @@
         <v>0</v>
       </c>
       <c r="AI24" s="2" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AJ24" s="2" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="AK24" s="2" t="n">
         <v>0</v>
       </c>
       <c r="AL24" s="2" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AM24" s="2" t="inlineStr">
         <is>
@@ -3652,7 +3652,7 @@
         <v>0</v>
       </c>
       <c r="D25" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E25" t="n">
         <v>0</v>
@@ -3667,7 +3667,7 @@
         <v>0</v>
       </c>
       <c r="I25" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="J25" t="n">
         <v>0</v>
@@ -3685,25 +3685,25 @@
         <v>0</v>
       </c>
       <c r="O25" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="P25" t="n">
         <v>0</v>
       </c>
       <c r="Q25" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="R25" t="n">
         <v>0</v>
       </c>
       <c r="S25" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="T25" t="n">
         <v>0</v>
       </c>
       <c r="U25" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="V25" t="n">
         <v>1</v>
@@ -3730,13 +3730,13 @@
         <v>0</v>
       </c>
       <c r="AD25" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="AE25" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AF25" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AG25" t="n">
         <v>0</v>
@@ -3745,16 +3745,16 @@
         <v>0</v>
       </c>
       <c r="AI25" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AJ25" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="AK25" t="n">
         <v>0</v>
       </c>
       <c r="AL25" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AM25" t="inlineStr">
         <is>
@@ -3785,7 +3785,7 @@
         <v>0</v>
       </c>
       <c r="D26" s="2" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E26" s="2" t="n">
         <v>0</v>
@@ -3800,7 +3800,7 @@
         <v>0</v>
       </c>
       <c r="I26" s="2" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="J26" s="2" t="n">
         <v>0</v>
@@ -3818,25 +3818,25 @@
         <v>0</v>
       </c>
       <c r="O26" s="2" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="P26" s="2" t="n">
         <v>0</v>
       </c>
       <c r="Q26" s="2" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="R26" s="2" t="n">
         <v>0</v>
       </c>
       <c r="S26" s="2" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="T26" s="2" t="n">
         <v>0</v>
       </c>
       <c r="U26" s="2" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="V26" s="2" t="n">
         <v>1</v>
@@ -3863,13 +3863,13 @@
         <v>0</v>
       </c>
       <c r="AD26" s="2" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="AE26" s="2" t="n">
         <v>0</v>
       </c>
       <c r="AF26" s="2" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AG26" s="2" t="n">
         <v>0</v>
@@ -3878,16 +3878,16 @@
         <v>0</v>
       </c>
       <c r="AI26" s="2" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AJ26" s="2" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="AK26" s="2" t="n">
         <v>0</v>
       </c>
       <c r="AL26" s="2" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AM26" s="2" t="inlineStr">
         <is>
@@ -3912,7 +3912,7 @@
         <v>0</v>
       </c>
       <c r="D27" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E27" t="n">
         <v>0</v>
@@ -3927,7 +3927,7 @@
         <v>0</v>
       </c>
       <c r="I27" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="J27" t="n">
         <v>0</v>
@@ -3945,25 +3945,25 @@
         <v>0</v>
       </c>
       <c r="O27" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="P27" t="n">
         <v>0</v>
       </c>
       <c r="Q27" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="R27" t="n">
         <v>0</v>
       </c>
       <c r="S27" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="T27" t="n">
         <v>0</v>
       </c>
       <c r="U27" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="V27" t="n">
         <v>1</v>
@@ -3978,7 +3978,7 @@
         <v>0</v>
       </c>
       <c r="Z27" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AA27" t="n">
         <v>0</v>
@@ -3990,13 +3990,13 @@
         <v>0</v>
       </c>
       <c r="AD27" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="AE27" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AF27" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AG27" t="n">
         <v>0</v>
@@ -4005,16 +4005,16 @@
         <v>0</v>
       </c>
       <c r="AI27" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AJ27" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="AK27" t="n">
         <v>0</v>
       </c>
       <c r="AL27" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AM27" t="inlineStr">
         <is>
@@ -4045,7 +4045,7 @@
         <v>0</v>
       </c>
       <c r="D28" s="2" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E28" s="2" t="n">
         <v>0</v>
@@ -4060,7 +4060,7 @@
         <v>0</v>
       </c>
       <c r="I28" s="2" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="J28" s="2" t="n">
         <v>0</v>
@@ -4078,25 +4078,25 @@
         <v>0</v>
       </c>
       <c r="O28" s="2" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="P28" s="2" t="n">
         <v>0</v>
       </c>
       <c r="Q28" s="2" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="R28" s="2" t="n">
         <v>0</v>
       </c>
       <c r="S28" s="2" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="T28" s="2" t="n">
         <v>0</v>
       </c>
       <c r="U28" s="2" t="n">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="V28" s="2" t="n">
         <v>1</v>
@@ -4123,13 +4123,13 @@
         <v>0</v>
       </c>
       <c r="AD28" s="2" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="AE28" s="2" t="n">
         <v>0</v>
       </c>
       <c r="AF28" s="2" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AG28" s="2" t="n">
         <v>0</v>
@@ -4138,16 +4138,16 @@
         <v>0</v>
       </c>
       <c r="AI28" s="2" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AJ28" s="2" t="n">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="AK28" s="2" t="n">
         <v>0</v>
       </c>
       <c r="AL28" s="2" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AM28" s="2" t="inlineStr">
         <is>
@@ -4172,7 +4172,7 @@
         <v>0</v>
       </c>
       <c r="D29" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E29" t="n">
         <v>0</v>
@@ -4187,7 +4187,7 @@
         <v>0</v>
       </c>
       <c r="I29" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="J29" t="n">
         <v>0</v>
@@ -4202,28 +4202,28 @@
         <v>0</v>
       </c>
       <c r="N29" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="O29" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="P29" t="n">
         <v>0</v>
       </c>
       <c r="Q29" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="R29" t="n">
         <v>0</v>
       </c>
       <c r="S29" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="T29" t="n">
         <v>0</v>
       </c>
       <c r="U29" t="n">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="V29" t="n">
         <v>1</v>
@@ -4250,13 +4250,13 @@
         <v>0</v>
       </c>
       <c r="AD29" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="AE29" t="n">
         <v>1</v>
       </c>
       <c r="AF29" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AG29" t="n">
         <v>0</v>
@@ -4265,16 +4265,16 @@
         <v>0</v>
       </c>
       <c r="AI29" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AJ29" t="n">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="AK29" t="n">
         <v>0</v>
       </c>
       <c r="AL29" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AM29" t="inlineStr">
         <is>
@@ -4305,7 +4305,7 @@
         <v>0</v>
       </c>
       <c r="D30" s="2" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E30" s="2" t="n">
         <v>0</v>
@@ -4320,7 +4320,7 @@
         <v>0</v>
       </c>
       <c r="I30" s="2" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="J30" s="2" t="n">
         <v>0</v>
@@ -4338,25 +4338,25 @@
         <v>0</v>
       </c>
       <c r="O30" s="2" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="P30" s="2" t="n">
         <v>0</v>
       </c>
       <c r="Q30" s="2" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="R30" s="2" t="n">
         <v>0</v>
       </c>
       <c r="S30" s="2" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="T30" s="2" t="n">
         <v>0</v>
       </c>
       <c r="U30" s="2" t="n">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="V30" s="2" t="n">
         <v>1</v>
@@ -4383,13 +4383,13 @@
         <v>0</v>
       </c>
       <c r="AD30" s="2" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="AE30" s="2" t="n">
         <v>0</v>
       </c>
       <c r="AF30" s="2" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AG30" s="2" t="n">
         <v>0</v>
@@ -4398,16 +4398,16 @@
         <v>0</v>
       </c>
       <c r="AI30" s="2" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AJ30" s="2" t="n">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="AK30" s="2" t="n">
         <v>0</v>
       </c>
       <c r="AL30" s="2" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AM30" s="2" t="inlineStr">
         <is>
@@ -4432,7 +4432,7 @@
         <v>0</v>
       </c>
       <c r="D31" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E31" t="n">
         <v>0</v>
@@ -4447,7 +4447,7 @@
         <v>0</v>
       </c>
       <c r="I31" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="J31" t="n">
         <v>0</v>
@@ -4465,25 +4465,25 @@
         <v>0</v>
       </c>
       <c r="O31" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="P31" t="n">
         <v>0</v>
       </c>
       <c r="Q31" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="R31" t="n">
         <v>0</v>
       </c>
       <c r="S31" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="T31" t="n">
         <v>0</v>
       </c>
       <c r="U31" t="n">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="V31" t="n">
         <v>1</v>
@@ -4510,13 +4510,13 @@
         <v>0</v>
       </c>
       <c r="AD31" t="n">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="AE31" t="n">
         <v>0</v>
       </c>
       <c r="AF31" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AG31" t="n">
         <v>0</v>
@@ -4525,16 +4525,16 @@
         <v>0</v>
       </c>
       <c r="AI31" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AJ31" t="n">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="AK31" t="n">
         <v>0</v>
       </c>
       <c r="AL31" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AM31" t="inlineStr">
         <is>
@@ -4565,7 +4565,7 @@
         <v>0</v>
       </c>
       <c r="D32" s="2" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E32" s="2" t="n">
         <v>0</v>
@@ -4574,13 +4574,13 @@
         <v>0</v>
       </c>
       <c r="G32" s="2" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H32" s="2" t="n">
         <v>0</v>
       </c>
       <c r="I32" s="2" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="J32" s="2" t="n">
         <v>0</v>
@@ -4598,25 +4598,25 @@
         <v>0</v>
       </c>
       <c r="O32" s="2" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="P32" s="2" t="n">
         <v>0</v>
       </c>
       <c r="Q32" s="2" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="R32" s="2" t="n">
         <v>0</v>
       </c>
       <c r="S32" s="2" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="T32" s="2" t="n">
         <v>0</v>
       </c>
       <c r="U32" s="2" t="n">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="V32" s="2" t="n">
         <v>1</v>
@@ -4640,16 +4640,16 @@
         <v>1</v>
       </c>
       <c r="AC32" s="2" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AD32" s="2" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="AE32" s="2" t="n">
         <v>0</v>
       </c>
       <c r="AF32" s="2" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AG32" s="2" t="n">
         <v>0</v>
@@ -4658,16 +4658,16 @@
         <v>0</v>
       </c>
       <c r="AI32" s="2" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AJ32" s="2" t="n">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="AK32" s="2" t="n">
         <v>0</v>
       </c>
       <c r="AL32" s="2" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AM32" s="2" t="inlineStr">
         <is>
@@ -4689,10 +4689,10 @@
       <c r="A33" t="inlineStr"/>
       <c r="B33" t="inlineStr"/>
       <c r="C33" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D33" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E33" t="n">
         <v>0</v>
@@ -4701,13 +4701,13 @@
         <v>0</v>
       </c>
       <c r="G33" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H33" t="n">
         <v>0</v>
       </c>
       <c r="I33" t="n">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="J33" t="n">
         <v>0</v>
@@ -4725,25 +4725,25 @@
         <v>0</v>
       </c>
       <c r="O33" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="P33" t="n">
         <v>0</v>
       </c>
       <c r="Q33" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="R33" t="n">
         <v>0</v>
       </c>
       <c r="S33" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="T33" t="n">
         <v>0</v>
       </c>
       <c r="U33" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="V33" t="n">
         <v>1</v>
@@ -4767,16 +4767,16 @@
         <v>1</v>
       </c>
       <c r="AC33" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AD33" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="AE33" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AF33" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AG33" t="n">
         <v>0</v>
@@ -4785,16 +4785,16 @@
         <v>0</v>
       </c>
       <c r="AI33" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AJ33" t="n">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="AK33" t="n">
         <v>0</v>
       </c>
       <c r="AL33" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AM33" t="inlineStr">
         <is>
@@ -4834,16 +4834,16 @@
         <v>0</v>
       </c>
       <c r="G34" s="2" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H34" s="2" t="n">
         <v>0</v>
       </c>
       <c r="I34" s="2" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="J34" s="2" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K34" s="2" t="n">
         <v>1</v>
@@ -4858,25 +4858,25 @@
         <v>0</v>
       </c>
       <c r="O34" s="2" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="P34" s="2" t="n">
         <v>0</v>
       </c>
       <c r="Q34" s="2" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="R34" s="2" t="n">
         <v>0</v>
       </c>
       <c r="S34" s="2" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="T34" s="2" t="n">
         <v>0</v>
       </c>
       <c r="U34" s="2" t="n">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="V34" s="2" t="n">
         <v>1</v>
@@ -4900,16 +4900,16 @@
         <v>1</v>
       </c>
       <c r="AC34" s="2" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AD34" s="2" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="AE34" s="2" t="n">
         <v>0</v>
       </c>
       <c r="AF34" s="2" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AG34" s="2" t="n">
         <v>0</v>
@@ -4918,16 +4918,16 @@
         <v>0</v>
       </c>
       <c r="AI34" s="2" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AJ34" s="2" t="n">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="AK34" s="2" t="n">
         <v>0</v>
       </c>
       <c r="AL34" s="2" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AM34" s="2" t="inlineStr">
         <is>
@@ -4952,88 +4952,88 @@
         <v>0</v>
       </c>
       <c r="D35" t="n">
+        <v>1</v>
+      </c>
+      <c r="E35" t="n">
+        <v>0</v>
+      </c>
+      <c r="F35" t="n">
+        <v>0</v>
+      </c>
+      <c r="G35" t="n">
+        <v>0</v>
+      </c>
+      <c r="H35" t="n">
+        <v>0</v>
+      </c>
+      <c r="I35" t="n">
+        <v>3</v>
+      </c>
+      <c r="J35" t="n">
+        <v>0</v>
+      </c>
+      <c r="K35" t="n">
+        <v>1</v>
+      </c>
+      <c r="L35" t="n">
+        <v>0</v>
+      </c>
+      <c r="M35" t="n">
+        <v>0</v>
+      </c>
+      <c r="N35" t="n">
+        <v>0</v>
+      </c>
+      <c r="O35" t="n">
+        <v>1</v>
+      </c>
+      <c r="P35" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q35" t="n">
+        <v>1</v>
+      </c>
+      <c r="R35" t="n">
+        <v>0</v>
+      </c>
+      <c r="S35" t="n">
+        <v>1</v>
+      </c>
+      <c r="T35" t="n">
+        <v>0</v>
+      </c>
+      <c r="U35" t="n">
+        <v>4</v>
+      </c>
+      <c r="V35" t="n">
+        <v>1</v>
+      </c>
+      <c r="W35" t="n">
+        <v>0</v>
+      </c>
+      <c r="X35" t="n">
+        <v>0</v>
+      </c>
+      <c r="Y35" t="n">
+        <v>0</v>
+      </c>
+      <c r="Z35" t="n">
+        <v>1</v>
+      </c>
+      <c r="AA35" t="n">
+        <v>0</v>
+      </c>
+      <c r="AB35" t="n">
         <v>2</v>
       </c>
-      <c r="E35" t="n">
-        <v>0</v>
-      </c>
-      <c r="F35" t="n">
-        <v>0</v>
-      </c>
-      <c r="G35" t="n">
-        <v>1</v>
-      </c>
-      <c r="H35" t="n">
-        <v>0</v>
-      </c>
-      <c r="I35" t="n">
-        <v>0</v>
-      </c>
-      <c r="J35" t="n">
-        <v>1</v>
-      </c>
-      <c r="K35" t="n">
-        <v>1</v>
-      </c>
-      <c r="L35" t="n">
-        <v>0</v>
-      </c>
-      <c r="M35" t="n">
-        <v>0</v>
-      </c>
-      <c r="N35" t="n">
-        <v>0</v>
-      </c>
-      <c r="O35" t="n">
-        <v>0</v>
-      </c>
-      <c r="P35" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q35" t="n">
-        <v>0</v>
-      </c>
-      <c r="R35" t="n">
-        <v>0</v>
-      </c>
-      <c r="S35" t="n">
-        <v>0</v>
-      </c>
-      <c r="T35" t="n">
-        <v>0</v>
-      </c>
-      <c r="U35" t="n">
-        <v>1</v>
-      </c>
-      <c r="V35" t="n">
-        <v>1</v>
-      </c>
-      <c r="W35" t="n">
-        <v>0</v>
-      </c>
-      <c r="X35" t="n">
-        <v>0</v>
-      </c>
-      <c r="Y35" t="n">
-        <v>0</v>
-      </c>
-      <c r="Z35" t="n">
-        <v>1</v>
-      </c>
-      <c r="AA35" t="n">
-        <v>0</v>
-      </c>
-      <c r="AB35" t="n">
-        <v>1</v>
-      </c>
       <c r="AC35" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AD35" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="AE35" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AF35" t="n">
         <v>1</v>
@@ -5045,16 +5045,16 @@
         <v>0</v>
       </c>
       <c r="AI35" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AJ35" t="n">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="AK35" t="n">
         <v>0</v>
       </c>
       <c r="AL35" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AM35" t="inlineStr">
         <is>
@@ -5094,16 +5094,16 @@
         <v>0</v>
       </c>
       <c r="G36" s="2" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H36" s="2" t="n">
         <v>0</v>
       </c>
       <c r="I36" s="2" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="J36" s="2" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K36" s="2" t="n">
         <v>1</v>
@@ -5118,31 +5118,31 @@
         <v>0</v>
       </c>
       <c r="O36" s="2" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="P36" s="2" t="n">
         <v>0</v>
       </c>
       <c r="Q36" s="2" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="R36" s="2" t="n">
         <v>0</v>
       </c>
       <c r="S36" s="2" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="T36" s="2" t="n">
         <v>0</v>
       </c>
       <c r="U36" s="2" t="n">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="V36" s="2" t="n">
         <v>1</v>
       </c>
       <c r="W36" s="2" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="X36" s="2" t="n">
         <v>0</v>
@@ -5154,22 +5154,22 @@
         <v>1</v>
       </c>
       <c r="AA36" s="2" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AB36" s="2" t="n">
         <v>1</v>
       </c>
       <c r="AC36" s="2" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AD36" s="2" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="AE36" s="2" t="n">
         <v>0</v>
       </c>
       <c r="AF36" s="2" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AG36" s="2" t="n">
         <v>0</v>
@@ -5178,16 +5178,16 @@
         <v>0</v>
       </c>
       <c r="AI36" s="2" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AJ36" s="2" t="n">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="AK36" s="2" t="n">
         <v>0</v>
       </c>
       <c r="AL36" s="2" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AM36" s="2" t="inlineStr">
         <is>
@@ -5221,16 +5221,16 @@
         <v>0</v>
       </c>
       <c r="G37" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H37" t="n">
         <v>0</v>
       </c>
       <c r="I37" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="J37" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K37" t="n">
         <v>1</v>
@@ -5245,31 +5245,31 @@
         <v>0</v>
       </c>
       <c r="O37" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="P37" t="n">
         <v>0</v>
       </c>
       <c r="Q37" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="R37" t="n">
         <v>0</v>
       </c>
       <c r="S37" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="T37" t="n">
         <v>0</v>
       </c>
       <c r="U37" t="n">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="V37" t="n">
         <v>1</v>
       </c>
       <c r="W37" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="X37" t="n">
         <v>0</v>
@@ -5281,40 +5281,40 @@
         <v>1</v>
       </c>
       <c r="AA37" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AB37" t="n">
         <v>1</v>
       </c>
       <c r="AC37" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AD37" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="AE37" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AF37" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AG37" t="n">
         <v>0</v>
       </c>
       <c r="AH37" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AI37" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AJ37" t="n">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="AK37" t="n">
         <v>0</v>
       </c>
       <c r="AL37" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AM37" t="inlineStr">
         <is>
@@ -5354,16 +5354,16 @@
         <v>0</v>
       </c>
       <c r="G38" s="2" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H38" s="2" t="n">
         <v>0</v>
       </c>
       <c r="I38" s="2" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="J38" s="2" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K38" s="2" t="n">
         <v>1</v>
@@ -5378,31 +5378,31 @@
         <v>0</v>
       </c>
       <c r="O38" s="2" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="P38" s="2" t="n">
         <v>0</v>
       </c>
       <c r="Q38" s="2" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="R38" s="2" t="n">
         <v>0</v>
       </c>
       <c r="S38" s="2" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="T38" s="2" t="n">
         <v>0</v>
       </c>
       <c r="U38" s="2" t="n">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="V38" s="2" t="n">
         <v>1</v>
       </c>
       <c r="W38" s="2" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="X38" s="2" t="n">
         <v>0</v>
@@ -5414,22 +5414,22 @@
         <v>1</v>
       </c>
       <c r="AA38" s="2" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AB38" s="2" t="n">
         <v>1</v>
       </c>
       <c r="AC38" s="2" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AD38" s="2" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="AE38" s="2" t="n">
         <v>0</v>
       </c>
       <c r="AF38" s="2" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AG38" s="2" t="n">
         <v>0</v>
@@ -5438,16 +5438,16 @@
         <v>0</v>
       </c>
       <c r="AI38" s="2" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AJ38" s="2" t="n">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="AK38" s="2" t="n">
         <v>1</v>
       </c>
       <c r="AL38" s="2" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AM38" s="2" t="inlineStr">
         <is>
@@ -5481,16 +5481,16 @@
         <v>0</v>
       </c>
       <c r="G39" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H39" t="n">
         <v>0</v>
       </c>
       <c r="I39" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="J39" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K39" t="n">
         <v>1</v>
@@ -5505,31 +5505,31 @@
         <v>0</v>
       </c>
       <c r="O39" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="P39" t="n">
         <v>0</v>
       </c>
       <c r="Q39" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="R39" t="n">
         <v>0</v>
       </c>
       <c r="S39" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="T39" t="n">
         <v>0</v>
       </c>
       <c r="U39" t="n">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="V39" t="n">
         <v>1</v>
       </c>
       <c r="W39" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="X39" t="n">
         <v>0</v>
@@ -5541,40 +5541,40 @@
         <v>1</v>
       </c>
       <c r="AA39" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AB39" t="n">
         <v>1</v>
       </c>
       <c r="AC39" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AD39" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="AE39" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AF39" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AG39" t="n">
         <v>0</v>
       </c>
       <c r="AH39" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AI39" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AJ39" t="n">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="AK39" t="n">
         <v>1</v>
       </c>
       <c r="AL39" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AM39" t="inlineStr">
         <is>
@@ -5608,22 +5608,22 @@
         <v>1</v>
       </c>
       <c r="E40" s="2" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F40" s="2" t="n">
         <v>0</v>
       </c>
       <c r="G40" s="2" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H40" s="2" t="n">
         <v>0</v>
       </c>
       <c r="I40" s="2" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="J40" s="2" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K40" s="2" t="n">
         <v>1</v>
@@ -5638,31 +5638,31 @@
         <v>0</v>
       </c>
       <c r="O40" s="2" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="P40" s="2" t="n">
         <v>0</v>
       </c>
       <c r="Q40" s="2" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="R40" s="2" t="n">
         <v>0</v>
       </c>
       <c r="S40" s="2" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="T40" s="2" t="n">
         <v>0</v>
       </c>
       <c r="U40" s="2" t="n">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="V40" s="2" t="n">
         <v>1</v>
       </c>
       <c r="W40" s="2" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="X40" s="2" t="n">
         <v>0</v>
@@ -5674,22 +5674,22 @@
         <v>1</v>
       </c>
       <c r="AA40" s="2" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AB40" s="2" t="n">
         <v>1</v>
       </c>
       <c r="AC40" s="2" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AD40" s="2" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="AE40" s="2" t="n">
         <v>0</v>
       </c>
       <c r="AF40" s="2" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AG40" s="2" t="n">
         <v>0</v>
@@ -5698,16 +5698,16 @@
         <v>0</v>
       </c>
       <c r="AI40" s="2" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AJ40" s="2" t="n">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="AK40" s="2" t="n">
         <v>1</v>
       </c>
       <c r="AL40" s="2" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AM40" s="2" t="inlineStr">
         <is>
@@ -5735,22 +5735,22 @@
         <v>1</v>
       </c>
       <c r="E41" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F41" t="n">
         <v>0</v>
       </c>
       <c r="G41" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H41" t="n">
         <v>0</v>
       </c>
       <c r="I41" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="J41" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K41" t="n">
         <v>1</v>
@@ -5765,31 +5765,31 @@
         <v>0</v>
       </c>
       <c r="O41" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="P41" t="n">
         <v>0</v>
       </c>
       <c r="Q41" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="R41" t="n">
         <v>0</v>
       </c>
       <c r="S41" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="T41" t="n">
         <v>0</v>
       </c>
       <c r="U41" t="n">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="V41" t="n">
         <v>1</v>
       </c>
       <c r="W41" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="X41" t="n">
         <v>0</v>
@@ -5801,40 +5801,40 @@
         <v>1</v>
       </c>
       <c r="AA41" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AB41" t="n">
         <v>1</v>
       </c>
       <c r="AC41" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AD41" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="AE41" t="n">
         <v>0</v>
       </c>
       <c r="AF41" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AG41" t="n">
         <v>0</v>
       </c>
       <c r="AH41" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AI41" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="AJ41" t="n">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="AK41" t="n">
         <v>1</v>
       </c>
       <c r="AL41" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AM41" t="inlineStr">
         <is>
@@ -5868,22 +5868,22 @@
         <v>1</v>
       </c>
       <c r="E42" s="2" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F42" s="2" t="n">
         <v>0</v>
       </c>
       <c r="G42" s="2" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H42" s="2" t="n">
         <v>0</v>
       </c>
       <c r="I42" s="2" t="n">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="J42" s="2" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K42" s="2" t="n">
         <v>1</v>
@@ -5898,31 +5898,31 @@
         <v>0</v>
       </c>
       <c r="O42" s="2" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="P42" s="2" t="n">
         <v>0</v>
       </c>
       <c r="Q42" s="2" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="R42" s="2" t="n">
         <v>0</v>
       </c>
       <c r="S42" s="2" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="T42" s="2" t="n">
         <v>0</v>
       </c>
       <c r="U42" s="2" t="n">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="V42" s="2" t="n">
         <v>1</v>
       </c>
       <c r="W42" s="2" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="X42" s="2" t="n">
         <v>0</v>
@@ -5934,22 +5934,22 @@
         <v>1</v>
       </c>
       <c r="AA42" s="2" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AB42" s="2" t="n">
         <v>1</v>
       </c>
       <c r="AC42" s="2" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AD42" s="2" t="n">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="AE42" s="2" t="n">
         <v>0</v>
       </c>
       <c r="AF42" s="2" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AG42" s="2" t="n">
         <v>0</v>
@@ -5958,16 +5958,16 @@
         <v>0</v>
       </c>
       <c r="AI42" s="2" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AJ42" s="2" t="n">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="AK42" s="2" t="n">
         <v>1</v>
       </c>
       <c r="AL42" s="2" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AM42" s="2" t="inlineStr">
         <is>
@@ -5995,22 +5995,22 @@
         <v>1</v>
       </c>
       <c r="E43" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F43" t="n">
         <v>0</v>
       </c>
       <c r="G43" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H43" t="n">
         <v>0</v>
       </c>
       <c r="I43" t="n">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="J43" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K43" t="n">
         <v>1</v>
@@ -6025,31 +6025,31 @@
         <v>0</v>
       </c>
       <c r="O43" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="P43" t="n">
         <v>0</v>
       </c>
       <c r="Q43" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="R43" t="n">
         <v>0</v>
       </c>
       <c r="S43" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="T43" t="n">
         <v>0</v>
       </c>
       <c r="U43" t="n">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="V43" t="n">
         <v>1</v>
       </c>
       <c r="W43" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="X43" t="n">
         <v>0</v>
@@ -6061,40 +6061,40 @@
         <v>1</v>
       </c>
       <c r="AA43" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AB43" t="n">
         <v>1</v>
       </c>
       <c r="AC43" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AD43" t="n">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="AE43" t="n">
         <v>0</v>
       </c>
       <c r="AF43" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AG43" t="n">
         <v>0</v>
       </c>
       <c r="AH43" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AI43" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="AJ43" t="n">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="AK43" t="n">
         <v>1</v>
       </c>
       <c r="AL43" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AM43" t="inlineStr">
         <is>
@@ -6128,22 +6128,22 @@
         <v>1</v>
       </c>
       <c r="E44" s="2" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F44" s="2" t="n">
         <v>0</v>
       </c>
       <c r="G44" s="2" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H44" s="2" t="n">
         <v>0</v>
       </c>
       <c r="I44" s="2" t="n">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="J44" s="2" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K44" s="2" t="n">
         <v>1</v>
@@ -6155,37 +6155,37 @@
         <v>0</v>
       </c>
       <c r="N44" s="2" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="O44" s="2" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="P44" s="2" t="n">
         <v>0</v>
       </c>
       <c r="Q44" s="2" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="R44" s="2" t="n">
         <v>0</v>
       </c>
       <c r="S44" s="2" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="T44" s="2" t="n">
         <v>0</v>
       </c>
       <c r="U44" s="2" t="n">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="V44" s="2" t="n">
         <v>1</v>
       </c>
       <c r="W44" s="2" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="X44" s="2" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Y44" s="2" t="n">
         <v>0</v>
@@ -6194,22 +6194,22 @@
         <v>1</v>
       </c>
       <c r="AA44" s="2" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AB44" s="2" t="n">
         <v>1</v>
       </c>
       <c r="AC44" s="2" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AD44" s="2" t="n">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="AE44" s="2" t="n">
         <v>0</v>
       </c>
       <c r="AF44" s="2" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AG44" s="2" t="n">
         <v>0</v>
@@ -6218,16 +6218,16 @@
         <v>0</v>
       </c>
       <c r="AI44" s="2" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AJ44" s="2" t="n">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="AK44" s="2" t="n">
         <v>1</v>
       </c>
       <c r="AL44" s="2" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AM44" s="2" t="inlineStr">
         <is>
@@ -6255,22 +6255,22 @@
         <v>1</v>
       </c>
       <c r="E45" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F45" t="n">
         <v>0</v>
       </c>
       <c r="G45" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H45" t="n">
         <v>0</v>
       </c>
       <c r="I45" t="n">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="J45" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K45" t="n">
         <v>1</v>
@@ -6282,37 +6282,37 @@
         <v>0</v>
       </c>
       <c r="N45" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="O45" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="P45" t="n">
         <v>0</v>
       </c>
       <c r="Q45" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="R45" t="n">
         <v>0</v>
       </c>
       <c r="S45" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="T45" t="n">
         <v>0</v>
       </c>
       <c r="U45" t="n">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="V45" t="n">
         <v>1</v>
       </c>
       <c r="W45" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="X45" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Y45" t="n">
         <v>0</v>
@@ -6321,40 +6321,40 @@
         <v>1</v>
       </c>
       <c r="AA45" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AB45" t="n">
         <v>1</v>
       </c>
       <c r="AC45" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AD45" t="n">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="AE45" t="n">
         <v>0</v>
       </c>
       <c r="AF45" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AG45" t="n">
         <v>0</v>
       </c>
       <c r="AH45" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AI45" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="AJ45" t="n">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="AK45" t="n">
         <v>1</v>
       </c>
       <c r="AL45" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AM45" t="inlineStr">
         <is>
@@ -6388,22 +6388,22 @@
         <v>1</v>
       </c>
       <c r="E46" s="2" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F46" s="2" t="n">
         <v>0</v>
       </c>
       <c r="G46" s="2" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H46" s="2" t="n">
         <v>0</v>
       </c>
       <c r="I46" s="2" t="n">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="J46" s="2" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K46" s="2" t="n">
         <v>1</v>
@@ -6418,34 +6418,34 @@
         <v>1</v>
       </c>
       <c r="O46" s="2" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="P46" s="2" t="n">
         <v>0</v>
       </c>
       <c r="Q46" s="2" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="R46" s="2" t="n">
         <v>0</v>
       </c>
       <c r="S46" s="2" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="T46" s="2" t="n">
         <v>0</v>
       </c>
       <c r="U46" s="2" t="n">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="V46" s="2" t="n">
         <v>1</v>
       </c>
       <c r="W46" s="2" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="X46" s="2" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Y46" s="2" t="n">
         <v>0</v>
@@ -6460,16 +6460,16 @@
         <v>1</v>
       </c>
       <c r="AC46" s="2" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AD46" s="2" t="n">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="AE46" s="2" t="n">
         <v>0</v>
       </c>
       <c r="AF46" s="2" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AG46" s="2" t="n">
         <v>0</v>
@@ -6478,16 +6478,16 @@
         <v>0</v>
       </c>
       <c r="AI46" s="2" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AJ46" s="2" t="n">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="AK46" s="2" t="n">
         <v>1</v>
       </c>
       <c r="AL46" s="2" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AM46" s="2" t="inlineStr">
         <is>
@@ -6515,22 +6515,22 @@
         <v>1</v>
       </c>
       <c r="E47" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F47" t="n">
         <v>0</v>
       </c>
       <c r="G47" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H47" t="n">
         <v>0</v>
       </c>
       <c r="I47" t="n">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="J47" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K47" t="n">
         <v>1</v>
@@ -6545,76 +6545,76 @@
         <v>1</v>
       </c>
       <c r="O47" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="P47" t="n">
         <v>0</v>
       </c>
       <c r="Q47" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="R47" t="n">
         <v>0</v>
       </c>
       <c r="S47" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="T47" t="n">
         <v>0</v>
       </c>
       <c r="U47" t="n">
+        <v>4</v>
+      </c>
+      <c r="V47" t="n">
+        <v>1</v>
+      </c>
+      <c r="W47" t="n">
+        <v>1</v>
+      </c>
+      <c r="X47" t="n">
+        <v>0</v>
+      </c>
+      <c r="Y47" t="n">
+        <v>0</v>
+      </c>
+      <c r="Z47" t="n">
+        <v>1</v>
+      </c>
+      <c r="AA47" t="n">
+        <v>1</v>
+      </c>
+      <c r="AB47" t="n">
+        <v>1</v>
+      </c>
+      <c r="AC47" t="n">
+        <v>1</v>
+      </c>
+      <c r="AD47" t="n">
+        <v>0</v>
+      </c>
+      <c r="AE47" t="n">
+        <v>0</v>
+      </c>
+      <c r="AF47" t="n">
+        <v>0</v>
+      </c>
+      <c r="AG47" t="n">
+        <v>0</v>
+      </c>
+      <c r="AH47" t="n">
+        <v>0</v>
+      </c>
+      <c r="AI47" t="n">
         <v>2</v>
       </c>
-      <c r="V47" t="n">
-        <v>1</v>
-      </c>
-      <c r="W47" t="n">
-        <v>0</v>
-      </c>
-      <c r="X47" t="n">
-        <v>1</v>
-      </c>
-      <c r="Y47" t="n">
-        <v>0</v>
-      </c>
-      <c r="Z47" t="n">
-        <v>1</v>
-      </c>
-      <c r="AA47" t="n">
-        <v>1</v>
-      </c>
-      <c r="AB47" t="n">
-        <v>1</v>
-      </c>
-      <c r="AC47" t="n">
-        <v>0</v>
-      </c>
-      <c r="AD47" t="n">
-        <v>4</v>
-      </c>
-      <c r="AE47" t="n">
-        <v>0</v>
-      </c>
-      <c r="AF47" t="n">
-        <v>1</v>
-      </c>
-      <c r="AG47" t="n">
-        <v>0</v>
-      </c>
-      <c r="AH47" t="n">
-        <v>0</v>
-      </c>
-      <c r="AI47" t="n">
-        <v>0</v>
-      </c>
       <c r="AJ47" t="n">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="AK47" t="n">
         <v>1</v>
       </c>
       <c r="AL47" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AM47" t="inlineStr">
         <is>
@@ -6648,22 +6648,22 @@
         <v>1</v>
       </c>
       <c r="E48" s="2" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F48" s="2" t="n">
         <v>0</v>
       </c>
       <c r="G48" s="2" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H48" s="2" t="n">
         <v>0</v>
       </c>
       <c r="I48" s="2" t="n">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="J48" s="2" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K48" s="2" t="n">
         <v>1</v>
@@ -6675,37 +6675,37 @@
         <v>0</v>
       </c>
       <c r="N48" s="2" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="O48" s="2" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="P48" s="2" t="n">
         <v>0</v>
       </c>
       <c r="Q48" s="2" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="R48" s="2" t="n">
         <v>0</v>
       </c>
       <c r="S48" s="2" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="T48" s="2" t="n">
         <v>0</v>
       </c>
       <c r="U48" s="2" t="n">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="V48" s="2" t="n">
         <v>1</v>
       </c>
       <c r="W48" s="2" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="X48" s="2" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="Y48" s="2" t="n">
         <v>0</v>
@@ -6720,16 +6720,16 @@
         <v>1</v>
       </c>
       <c r="AC48" s="2" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AD48" s="2" t="n">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="AE48" s="2" t="n">
         <v>0</v>
       </c>
       <c r="AF48" s="2" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AG48" s="2" t="n">
         <v>0</v>
@@ -6738,16 +6738,16 @@
         <v>0</v>
       </c>
       <c r="AI48" s="2" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AJ48" s="2" t="n">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="AK48" s="2" t="n">
         <v>1</v>
       </c>
       <c r="AL48" s="2" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AM48" s="2" t="inlineStr">
         <is>
@@ -6775,22 +6775,22 @@
         <v>1</v>
       </c>
       <c r="E49" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F49" t="n">
         <v>0</v>
       </c>
       <c r="G49" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H49" t="n">
         <v>0</v>
       </c>
       <c r="I49" t="n">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="J49" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K49" t="n">
         <v>1</v>
@@ -6802,28 +6802,28 @@
         <v>0</v>
       </c>
       <c r="N49" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="O49" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="P49" t="n">
         <v>0</v>
       </c>
       <c r="Q49" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="R49" t="n">
         <v>0</v>
       </c>
       <c r="S49" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="T49" t="n">
         <v>0</v>
       </c>
       <c r="U49" t="n">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="V49" t="n">
         <v>1</v>
@@ -6832,31 +6832,31 @@
         <v>1</v>
       </c>
       <c r="X49" t="n">
+        <v>0</v>
+      </c>
+      <c r="Y49" t="n">
+        <v>0</v>
+      </c>
+      <c r="Z49" t="n">
+        <v>1</v>
+      </c>
+      <c r="AA49" t="n">
         <v>2</v>
       </c>
-      <c r="Y49" t="n">
-        <v>0</v>
-      </c>
-      <c r="Z49" t="n">
-        <v>1</v>
-      </c>
-      <c r="AA49" t="n">
-        <v>1</v>
-      </c>
       <c r="AB49" t="n">
         <v>1</v>
       </c>
       <c r="AC49" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AD49" t="n">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="AE49" t="n">
         <v>0</v>
       </c>
       <c r="AF49" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AG49" t="n">
         <v>0</v>
@@ -6865,16 +6865,16 @@
         <v>0</v>
       </c>
       <c r="AI49" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AJ49" t="n">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="AK49" t="n">
         <v>1</v>
       </c>
       <c r="AL49" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AM49" t="inlineStr">
         <is>
@@ -6908,22 +6908,22 @@
         <v>1</v>
       </c>
       <c r="E50" s="2" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F50" s="2" t="n">
         <v>0</v>
       </c>
       <c r="G50" s="2" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H50" s="2" t="n">
         <v>0</v>
       </c>
       <c r="I50" s="2" t="n">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="J50" s="2" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K50" s="2" t="n">
         <v>1</v>
@@ -6938,58 +6938,58 @@
         <v>2</v>
       </c>
       <c r="O50" s="2" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="P50" s="2" t="n">
         <v>0</v>
       </c>
       <c r="Q50" s="2" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="R50" s="2" t="n">
         <v>0</v>
       </c>
       <c r="S50" s="2" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="T50" s="2" t="n">
         <v>0</v>
       </c>
       <c r="U50" s="2" t="n">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="V50" s="2" t="n">
         <v>1</v>
       </c>
       <c r="W50" s="2" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="X50" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="Y50" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="Z50" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="AA50" s="2" t="n">
         <v>2</v>
       </c>
-      <c r="Y50" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="Z50" s="2" t="n">
-        <v>1</v>
-      </c>
-      <c r="AA50" s="2" t="n">
-        <v>1</v>
-      </c>
       <c r="AB50" s="2" t="n">
         <v>1</v>
       </c>
       <c r="AC50" s="2" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AD50" s="2" t="n">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="AE50" s="2" t="n">
         <v>0</v>
       </c>
       <c r="AF50" s="2" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AG50" s="2" t="n">
         <v>0</v>
@@ -6998,16 +6998,16 @@
         <v>0</v>
       </c>
       <c r="AI50" s="2" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AJ50" s="2" t="n">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="AK50" s="2" t="n">
         <v>1</v>
       </c>
       <c r="AL50" s="2" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AM50" s="2" t="inlineStr">
         <is>
@@ -7041,22 +7041,22 @@
         <v>1</v>
       </c>
       <c r="E51" s="2" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F51" s="2" t="n">
         <v>0</v>
       </c>
       <c r="G51" s="2" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H51" s="2" t="n">
         <v>0</v>
       </c>
       <c r="I51" s="2" t="n">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="J51" s="2" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K51" s="2" t="n">
         <v>1</v>
@@ -7068,61 +7068,61 @@
         <v>0</v>
       </c>
       <c r="N51" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="O51" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="P51" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q51" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="R51" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="S51" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="T51" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="U51" s="2" t="n">
+        <v>4</v>
+      </c>
+      <c r="V51" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="W51" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="X51" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="Y51" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="Z51" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="AA51" s="2" t="n">
         <v>2</v>
       </c>
-      <c r="O51" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="P51" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q51" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="R51" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="S51" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="T51" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="U51" s="2" t="n">
-        <v>1</v>
-      </c>
-      <c r="V51" s="2" t="n">
-        <v>1</v>
-      </c>
-      <c r="W51" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="X51" s="2" t="n">
-        <v>3</v>
-      </c>
-      <c r="Y51" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="Z51" s="2" t="n">
-        <v>1</v>
-      </c>
-      <c r="AA51" s="2" t="n">
-        <v>1</v>
-      </c>
       <c r="AB51" s="2" t="n">
         <v>1</v>
       </c>
       <c r="AC51" s="2" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AD51" s="2" t="n">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="AE51" s="2" t="n">
         <v>0</v>
       </c>
       <c r="AF51" s="2" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AG51" s="2" t="n">
         <v>0</v>
@@ -7131,16 +7131,16 @@
         <v>0</v>
       </c>
       <c r="AI51" s="2" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AJ51" s="2" t="n">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="AK51" s="2" t="n">
         <v>1</v>
       </c>
       <c r="AL51" s="2" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AM51" s="2" t="inlineStr">
         <is>
@@ -7174,22 +7174,22 @@
         <v>1</v>
       </c>
       <c r="E52" s="2" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F52" s="2" t="n">
         <v>0</v>
       </c>
       <c r="G52" s="2" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H52" s="2" t="n">
         <v>0</v>
       </c>
       <c r="I52" s="2" t="n">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="J52" s="2" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K52" s="2" t="n">
         <v>1</v>
@@ -7204,58 +7204,58 @@
         <v>3</v>
       </c>
       <c r="O52" s="2" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="P52" s="2" t="n">
         <v>0</v>
       </c>
       <c r="Q52" s="2" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="R52" s="2" t="n">
         <v>0</v>
       </c>
       <c r="S52" s="2" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="T52" s="2" t="n">
         <v>0</v>
       </c>
       <c r="U52" s="2" t="n">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="V52" s="2" t="n">
         <v>1</v>
       </c>
       <c r="W52" s="2" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="X52" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="Y52" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="Z52" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="AA52" s="2" t="n">
         <v>3</v>
       </c>
-      <c r="Y52" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="Z52" s="2" t="n">
-        <v>1</v>
-      </c>
-      <c r="AA52" s="2" t="n">
-        <v>1</v>
-      </c>
       <c r="AB52" s="2" t="n">
         <v>1</v>
       </c>
       <c r="AC52" s="2" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AD52" s="2" t="n">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="AE52" s="2" t="n">
         <v>0</v>
       </c>
       <c r="AF52" s="2" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AG52" s="2" t="n">
         <v>0</v>
@@ -7264,16 +7264,16 @@
         <v>0</v>
       </c>
       <c r="AI52" s="2" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AJ52" s="2" t="n">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="AK52" s="2" t="n">
         <v>1</v>
       </c>
       <c r="AL52" s="2" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AM52" s="2" t="inlineStr">
         <is>
@@ -7307,22 +7307,22 @@
         <v>1</v>
       </c>
       <c r="E53" s="2" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F53" s="2" t="n">
         <v>0</v>
       </c>
       <c r="G53" s="2" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H53" s="2" t="n">
         <v>0</v>
       </c>
       <c r="I53" s="2" t="n">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="J53" s="2" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K53" s="2" t="n">
         <v>1</v>
@@ -7334,61 +7334,61 @@
         <v>0</v>
       </c>
       <c r="N53" s="2" t="n">
+        <v>4</v>
+      </c>
+      <c r="O53" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="P53" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q53" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="R53" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="S53" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="T53" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="U53" s="2" t="n">
+        <v>4</v>
+      </c>
+      <c r="V53" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="W53" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="X53" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="Y53" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="Z53" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="AA53" s="2" t="n">
         <v>3</v>
       </c>
-      <c r="O53" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="P53" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q53" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="R53" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="S53" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="T53" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="U53" s="2" t="n">
-        <v>1</v>
-      </c>
-      <c r="V53" s="2" t="n">
-        <v>1</v>
-      </c>
-      <c r="W53" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="X53" s="2" t="n">
-        <v>4</v>
-      </c>
-      <c r="Y53" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="Z53" s="2" t="n">
-        <v>1</v>
-      </c>
-      <c r="AA53" s="2" t="n">
-        <v>1</v>
-      </c>
       <c r="AB53" s="2" t="n">
         <v>1</v>
       </c>
       <c r="AC53" s="2" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AD53" s="2" t="n">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="AE53" s="2" t="n">
         <v>0</v>
       </c>
       <c r="AF53" s="2" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AG53" s="2" t="n">
         <v>0</v>
@@ -7397,16 +7397,16 @@
         <v>0</v>
       </c>
       <c r="AI53" s="2" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AJ53" s="2" t="n">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="AK53" s="2" t="n">
         <v>1</v>
       </c>
       <c r="AL53" s="2" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AM53" s="2" t="inlineStr">
         <is>
@@ -7440,22 +7440,22 @@
         <v>1</v>
       </c>
       <c r="E54" s="2" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F54" s="2" t="n">
         <v>0</v>
       </c>
       <c r="G54" s="2" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H54" s="2" t="n">
         <v>0</v>
       </c>
       <c r="I54" s="2" t="n">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="J54" s="2" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K54" s="2" t="n">
         <v>1</v>
@@ -7470,58 +7470,58 @@
         <v>4</v>
       </c>
       <c r="O54" s="2" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="P54" s="2" t="n">
         <v>0</v>
       </c>
       <c r="Q54" s="2" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="R54" s="2" t="n">
         <v>0</v>
       </c>
       <c r="S54" s="2" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="T54" s="2" t="n">
         <v>0</v>
       </c>
       <c r="U54" s="2" t="n">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="V54" s="2" t="n">
         <v>1</v>
       </c>
       <c r="W54" s="2" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="X54" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="Y54" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="Z54" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="AA54" s="2" t="n">
         <v>4</v>
       </c>
-      <c r="Y54" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="Z54" s="2" t="n">
-        <v>1</v>
-      </c>
-      <c r="AA54" s="2" t="n">
-        <v>1</v>
-      </c>
       <c r="AB54" s="2" t="n">
         <v>1</v>
       </c>
       <c r="AC54" s="2" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AD54" s="2" t="n">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="AE54" s="2" t="n">
         <v>0</v>
       </c>
       <c r="AF54" s="2" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AG54" s="2" t="n">
         <v>0</v>
@@ -7530,16 +7530,16 @@
         <v>0</v>
       </c>
       <c r="AI54" s="2" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AJ54" s="2" t="n">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="AK54" s="2" t="n">
         <v>1</v>
       </c>
       <c r="AL54" s="2" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AM54" s="2" t="inlineStr">
         <is>
@@ -7573,22 +7573,22 @@
         <v>1</v>
       </c>
       <c r="E55" s="2" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F55" s="2" t="n">
         <v>0</v>
       </c>
       <c r="G55" s="2" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H55" s="2" t="n">
         <v>0</v>
       </c>
       <c r="I55" s="2" t="n">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="J55" s="2" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K55" s="2" t="n">
         <v>1</v>
@@ -7600,37 +7600,37 @@
         <v>0</v>
       </c>
       <c r="N55" s="2" t="n">
+        <v>5</v>
+      </c>
+      <c r="O55" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="P55" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q55" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="R55" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="S55" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="T55" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="U55" s="2" t="n">
         <v>4</v>
       </c>
-      <c r="O55" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="P55" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q55" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="R55" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="S55" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="T55" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="U55" s="2" t="n">
-        <v>1</v>
-      </c>
       <c r="V55" s="2" t="n">
         <v>1</v>
       </c>
       <c r="W55" s="2" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="X55" s="2" t="n">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="Y55" s="2" t="n">
         <v>0</v>
@@ -7639,22 +7639,22 @@
         <v>1</v>
       </c>
       <c r="AA55" s="2" t="n">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="AB55" s="2" t="n">
         <v>1</v>
       </c>
       <c r="AC55" s="2" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AD55" s="2" t="n">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="AE55" s="2" t="n">
         <v>0</v>
       </c>
       <c r="AF55" s="2" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AG55" s="2" t="n">
         <v>0</v>
@@ -7663,16 +7663,16 @@
         <v>0</v>
       </c>
       <c r="AI55" s="2" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AJ55" s="2" t="n">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="AK55" s="2" t="n">
         <v>1</v>
       </c>
       <c r="AL55" s="2" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AM55" s="2" t="inlineStr">
         <is>
@@ -7706,22 +7706,22 @@
         <v>1</v>
       </c>
       <c r="E56" s="2" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F56" s="2" t="n">
         <v>0</v>
       </c>
       <c r="G56" s="2" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H56" s="2" t="n">
         <v>0</v>
       </c>
       <c r="I56" s="2" t="n">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="J56" s="2" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K56" s="2" t="n">
         <v>1</v>
@@ -7736,58 +7736,58 @@
         <v>5</v>
       </c>
       <c r="O56" s="2" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="P56" s="2" t="n">
         <v>0</v>
       </c>
       <c r="Q56" s="2" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="R56" s="2" t="n">
         <v>0</v>
       </c>
       <c r="S56" s="2" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="T56" s="2" t="n">
         <v>0</v>
       </c>
       <c r="U56" s="2" t="n">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="V56" s="2" t="n">
         <v>1</v>
       </c>
       <c r="W56" s="2" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="X56" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="Y56" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="Z56" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="AA56" s="2" t="n">
         <v>5</v>
       </c>
-      <c r="Y56" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="Z56" s="2" t="n">
-        <v>1</v>
-      </c>
-      <c r="AA56" s="2" t="n">
-        <v>1</v>
-      </c>
       <c r="AB56" s="2" t="n">
         <v>1</v>
       </c>
       <c r="AC56" s="2" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AD56" s="2" t="n">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="AE56" s="2" t="n">
         <v>0</v>
       </c>
       <c r="AF56" s="2" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AG56" s="2" t="n">
         <v>0</v>
@@ -7796,16 +7796,16 @@
         <v>0</v>
       </c>
       <c r="AI56" s="2" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AJ56" s="2" t="n">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="AK56" s="2" t="n">
         <v>1</v>
       </c>
       <c r="AL56" s="2" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AM56" s="2" t="inlineStr">
         <is>
@@ -7839,22 +7839,22 @@
         <v>1</v>
       </c>
       <c r="E57" s="2" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F57" s="2" t="n">
         <v>0</v>
       </c>
       <c r="G57" s="2" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H57" s="2" t="n">
         <v>0</v>
       </c>
       <c r="I57" s="2" t="n">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="J57" s="2" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K57" s="2" t="n">
         <v>1</v>
@@ -7866,61 +7866,61 @@
         <v>0</v>
       </c>
       <c r="N57" s="2" t="n">
+        <v>6</v>
+      </c>
+      <c r="O57" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="P57" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q57" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="R57" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="S57" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="T57" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="U57" s="2" t="n">
+        <v>4</v>
+      </c>
+      <c r="V57" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="W57" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="X57" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="Y57" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="Z57" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="AA57" s="2" t="n">
         <v>5</v>
       </c>
-      <c r="O57" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="P57" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q57" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="R57" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="S57" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="T57" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="U57" s="2" t="n">
-        <v>1</v>
-      </c>
-      <c r="V57" s="2" t="n">
-        <v>1</v>
-      </c>
-      <c r="W57" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="X57" s="2" t="n">
-        <v>6</v>
-      </c>
-      <c r="Y57" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="Z57" s="2" t="n">
-        <v>1</v>
-      </c>
-      <c r="AA57" s="2" t="n">
-        <v>1</v>
-      </c>
       <c r="AB57" s="2" t="n">
         <v>1</v>
       </c>
       <c r="AC57" s="2" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AD57" s="2" t="n">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="AE57" s="2" t="n">
         <v>0</v>
       </c>
       <c r="AF57" s="2" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AG57" s="2" t="n">
         <v>0</v>
@@ -7929,16 +7929,16 @@
         <v>0</v>
       </c>
       <c r="AI57" s="2" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AJ57" s="2" t="n">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="AK57" s="2" t="n">
         <v>1</v>
       </c>
       <c r="AL57" s="2" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AM57" s="2" t="inlineStr">
         <is>
@@ -7972,22 +7972,22 @@
         <v>1</v>
       </c>
       <c r="E58" s="2" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F58" s="2" t="n">
         <v>0</v>
       </c>
       <c r="G58" s="2" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H58" s="2" t="n">
         <v>0</v>
       </c>
       <c r="I58" s="2" t="n">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="J58" s="2" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K58" s="2" t="n">
         <v>1</v>
@@ -8002,58 +8002,58 @@
         <v>6</v>
       </c>
       <c r="O58" s="2" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="P58" s="2" t="n">
         <v>0</v>
       </c>
       <c r="Q58" s="2" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="R58" s="2" t="n">
         <v>0</v>
       </c>
       <c r="S58" s="2" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="T58" s="2" t="n">
         <v>0</v>
       </c>
       <c r="U58" s="2" t="n">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="V58" s="2" t="n">
         <v>1</v>
       </c>
       <c r="W58" s="2" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="X58" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="Y58" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="Z58" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="AA58" s="2" t="n">
         <v>6</v>
       </c>
-      <c r="Y58" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="Z58" s="2" t="n">
-        <v>1</v>
-      </c>
-      <c r="AA58" s="2" t="n">
-        <v>1</v>
-      </c>
       <c r="AB58" s="2" t="n">
         <v>1</v>
       </c>
       <c r="AC58" s="2" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AD58" s="2" t="n">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="AE58" s="2" t="n">
         <v>0</v>
       </c>
       <c r="AF58" s="2" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AG58" s="2" t="n">
         <v>0</v>
@@ -8062,16 +8062,16 @@
         <v>0</v>
       </c>
       <c r="AI58" s="2" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AJ58" s="2" t="n">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="AK58" s="2" t="n">
         <v>1</v>
       </c>
       <c r="AL58" s="2" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AM58" s="2" t="inlineStr">
         <is>
@@ -8105,22 +8105,22 @@
         <v>1</v>
       </c>
       <c r="E59" s="2" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F59" s="2" t="n">
         <v>0</v>
       </c>
       <c r="G59" s="2" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H59" s="2" t="n">
         <v>0</v>
       </c>
       <c r="I59" s="2" t="n">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="J59" s="2" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K59" s="2" t="n">
         <v>1</v>
@@ -8132,61 +8132,61 @@
         <v>0</v>
       </c>
       <c r="N59" s="2" t="n">
+        <v>7</v>
+      </c>
+      <c r="O59" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="P59" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q59" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="R59" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="S59" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="T59" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="U59" s="2" t="n">
+        <v>4</v>
+      </c>
+      <c r="V59" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="W59" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="X59" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="Y59" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="Z59" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="AA59" s="2" t="n">
         <v>6</v>
       </c>
-      <c r="O59" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="P59" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q59" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="R59" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="S59" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="T59" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="U59" s="2" t="n">
-        <v>1</v>
-      </c>
-      <c r="V59" s="2" t="n">
-        <v>1</v>
-      </c>
-      <c r="W59" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="X59" s="2" t="n">
-        <v>7</v>
-      </c>
-      <c r="Y59" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="Z59" s="2" t="n">
-        <v>1</v>
-      </c>
-      <c r="AA59" s="2" t="n">
-        <v>1</v>
-      </c>
       <c r="AB59" s="2" t="n">
         <v>1</v>
       </c>
       <c r="AC59" s="2" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AD59" s="2" t="n">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="AE59" s="2" t="n">
         <v>0</v>
       </c>
       <c r="AF59" s="2" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AG59" s="2" t="n">
         <v>0</v>
@@ -8195,16 +8195,16 @@
         <v>0</v>
       </c>
       <c r="AI59" s="2" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AJ59" s="2" t="n">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="AK59" s="2" t="n">
         <v>1</v>
       </c>
       <c r="AL59" s="2" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AM59" s="2" t="inlineStr">
         <is>
@@ -8238,22 +8238,22 @@
         <v>1</v>
       </c>
       <c r="E60" s="2" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F60" s="2" t="n">
         <v>0</v>
       </c>
       <c r="G60" s="2" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H60" s="2" t="n">
         <v>0</v>
       </c>
       <c r="I60" s="2" t="n">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="J60" s="2" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K60" s="2" t="n">
         <v>1</v>
@@ -8268,58 +8268,58 @@
         <v>7</v>
       </c>
       <c r="O60" s="2" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="P60" s="2" t="n">
         <v>0</v>
       </c>
       <c r="Q60" s="2" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="R60" s="2" t="n">
         <v>0</v>
       </c>
       <c r="S60" s="2" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="T60" s="2" t="n">
         <v>0</v>
       </c>
       <c r="U60" s="2" t="n">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="V60" s="2" t="n">
         <v>1</v>
       </c>
       <c r="W60" s="2" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="X60" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="Y60" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="Z60" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="AA60" s="2" t="n">
         <v>7</v>
       </c>
-      <c r="Y60" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="Z60" s="2" t="n">
-        <v>1</v>
-      </c>
-      <c r="AA60" s="2" t="n">
-        <v>1</v>
-      </c>
       <c r="AB60" s="2" t="n">
         <v>1</v>
       </c>
       <c r="AC60" s="2" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AD60" s="2" t="n">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="AE60" s="2" t="n">
         <v>0</v>
       </c>
       <c r="AF60" s="2" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AG60" s="2" t="n">
         <v>0</v>
@@ -8328,16 +8328,16 @@
         <v>0</v>
       </c>
       <c r="AI60" s="2" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AJ60" s="2" t="n">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="AK60" s="2" t="n">
         <v>1</v>
       </c>
       <c r="AL60" s="2" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AM60" s="2" t="inlineStr">
         <is>
@@ -8371,22 +8371,22 @@
         <v>1</v>
       </c>
       <c r="E61" s="2" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F61" s="2" t="n">
         <v>0</v>
       </c>
       <c r="G61" s="2" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H61" s="2" t="n">
         <v>0</v>
       </c>
       <c r="I61" s="2" t="n">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="J61" s="2" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K61" s="2" t="n">
         <v>1</v>
@@ -8398,61 +8398,61 @@
         <v>0</v>
       </c>
       <c r="N61" s="2" t="n">
+        <v>8</v>
+      </c>
+      <c r="O61" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="P61" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q61" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="R61" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="S61" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="T61" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="U61" s="2" t="n">
+        <v>4</v>
+      </c>
+      <c r="V61" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="W61" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="X61" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="Y61" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="Z61" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="AA61" s="2" t="n">
         <v>7</v>
       </c>
-      <c r="O61" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="P61" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q61" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="R61" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="S61" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="T61" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="U61" s="2" t="n">
-        <v>1</v>
-      </c>
-      <c r="V61" s="2" t="n">
-        <v>1</v>
-      </c>
-      <c r="W61" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="X61" s="2" t="n">
-        <v>8</v>
-      </c>
-      <c r="Y61" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="Z61" s="2" t="n">
-        <v>1</v>
-      </c>
-      <c r="AA61" s="2" t="n">
-        <v>1</v>
-      </c>
       <c r="AB61" s="2" t="n">
         <v>1</v>
       </c>
       <c r="AC61" s="2" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AD61" s="2" t="n">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="AE61" s="2" t="n">
         <v>0</v>
       </c>
       <c r="AF61" s="2" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AG61" s="2" t="n">
         <v>0</v>
@@ -8461,16 +8461,16 @@
         <v>0</v>
       </c>
       <c r="AI61" s="2" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AJ61" s="2" t="n">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="AK61" s="2" t="n">
         <v>1</v>
       </c>
       <c r="AL61" s="2" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AM61" s="2" t="inlineStr">
         <is>
@@ -8504,22 +8504,22 @@
         <v>1</v>
       </c>
       <c r="E62" s="2" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F62" s="2" t="n">
         <v>0</v>
       </c>
       <c r="G62" s="2" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H62" s="2" t="n">
         <v>0</v>
       </c>
       <c r="I62" s="2" t="n">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="J62" s="2" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K62" s="2" t="n">
         <v>1</v>
@@ -8534,58 +8534,58 @@
         <v>8</v>
       </c>
       <c r="O62" s="2" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="P62" s="2" t="n">
         <v>0</v>
       </c>
       <c r="Q62" s="2" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="R62" s="2" t="n">
         <v>0</v>
       </c>
       <c r="S62" s="2" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="T62" s="2" t="n">
         <v>0</v>
       </c>
       <c r="U62" s="2" t="n">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="V62" s="2" t="n">
         <v>1</v>
       </c>
       <c r="W62" s="2" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="X62" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="Y62" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="Z62" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="AA62" s="2" t="n">
         <v>8</v>
       </c>
-      <c r="Y62" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="Z62" s="2" t="n">
-        <v>1</v>
-      </c>
-      <c r="AA62" s="2" t="n">
-        <v>1</v>
-      </c>
       <c r="AB62" s="2" t="n">
         <v>1</v>
       </c>
       <c r="AC62" s="2" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AD62" s="2" t="n">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="AE62" s="2" t="n">
         <v>0</v>
       </c>
       <c r="AF62" s="2" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AG62" s="2" t="n">
         <v>0</v>
@@ -8594,16 +8594,16 @@
         <v>0</v>
       </c>
       <c r="AI62" s="2" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AJ62" s="2" t="n">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="AK62" s="2" t="n">
         <v>1</v>
       </c>
       <c r="AL62" s="2" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AM62" s="2" t="inlineStr">
         <is>
@@ -8637,22 +8637,22 @@
         <v>1</v>
       </c>
       <c r="E63" s="2" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F63" s="2" t="n">
         <v>0</v>
       </c>
       <c r="G63" s="2" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H63" s="2" t="n">
         <v>0</v>
       </c>
       <c r="I63" s="2" t="n">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="J63" s="2" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K63" s="2" t="n">
         <v>1</v>
@@ -8664,61 +8664,61 @@
         <v>0</v>
       </c>
       <c r="N63" s="2" t="n">
+        <v>8</v>
+      </c>
+      <c r="O63" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="P63" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q63" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="R63" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="S63" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="T63" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="U63" s="2" t="n">
+        <v>4</v>
+      </c>
+      <c r="V63" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="W63" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="X63" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="Y63" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="Z63" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="AA63" s="2" t="n">
         <v>9</v>
       </c>
-      <c r="O63" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="P63" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q63" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="R63" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="S63" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="T63" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="U63" s="2" t="n">
-        <v>1</v>
-      </c>
-      <c r="V63" s="2" t="n">
-        <v>1</v>
-      </c>
-      <c r="W63" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="X63" s="2" t="n">
-        <v>8</v>
-      </c>
-      <c r="Y63" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="Z63" s="2" t="n">
-        <v>1</v>
-      </c>
-      <c r="AA63" s="2" t="n">
-        <v>1</v>
-      </c>
       <c r="AB63" s="2" t="n">
         <v>1</v>
       </c>
       <c r="AC63" s="2" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AD63" s="2" t="n">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="AE63" s="2" t="n">
         <v>0</v>
       </c>
       <c r="AF63" s="2" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AG63" s="2" t="n">
         <v>0</v>
@@ -8727,16 +8727,16 @@
         <v>0</v>
       </c>
       <c r="AI63" s="2" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AJ63" s="2" t="n">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="AK63" s="2" t="n">
         <v>1</v>
       </c>
       <c r="AL63" s="2" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AM63" s="2" t="inlineStr">
         <is>
@@ -8770,22 +8770,22 @@
         <v>1</v>
       </c>
       <c r="E64" s="2" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F64" s="2" t="n">
         <v>0</v>
       </c>
       <c r="G64" s="2" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H64" s="2" t="n">
         <v>0</v>
       </c>
       <c r="I64" s="2" t="n">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="J64" s="2" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K64" s="2" t="n">
         <v>1</v>
@@ -8797,58 +8797,58 @@
         <v>0</v>
       </c>
       <c r="N64" s="2" t="n">
+        <v>8</v>
+      </c>
+      <c r="O64" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="P64" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q64" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="R64" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="S64" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="T64" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="U64" s="2" t="n">
+        <v>4</v>
+      </c>
+      <c r="V64" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="W64" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="X64" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="Y64" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="Z64" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="AA64" s="2" t="n">
         <v>9</v>
       </c>
-      <c r="O64" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="P64" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q64" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="R64" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="S64" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="T64" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="U64" s="2" t="n">
-        <v>1</v>
-      </c>
-      <c r="V64" s="2" t="n">
-        <v>1</v>
-      </c>
-      <c r="W64" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="X64" s="2" t="n">
-        <v>8</v>
-      </c>
-      <c r="Y64" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="Z64" s="2" t="n">
-        <v>1</v>
-      </c>
-      <c r="AA64" s="2" t="n">
-        <v>1</v>
-      </c>
       <c r="AB64" s="2" t="n">
         <v>1</v>
       </c>
       <c r="AC64" s="2" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AD64" s="2" t="n">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="AE64" s="2" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AF64" s="2" t="n">
         <v>1</v>
@@ -8860,16 +8860,16 @@
         <v>0</v>
       </c>
       <c r="AI64" s="2" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AJ64" s="2" t="n">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="AK64" s="2" t="n">
         <v>1</v>
       </c>
       <c r="AL64" s="2" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AM64" s="2" t="inlineStr">
         <is>
@@ -8903,22 +8903,22 @@
         <v>1</v>
       </c>
       <c r="E65" s="2" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F65" s="2" t="n">
         <v>0</v>
       </c>
       <c r="G65" s="2" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H65" s="2" t="n">
         <v>0</v>
       </c>
       <c r="I65" s="2" t="n">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="J65" s="2" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K65" s="2" t="n">
         <v>1</v>
@@ -8930,58 +8930,58 @@
         <v>0</v>
       </c>
       <c r="N65" s="2" t="n">
+        <v>8</v>
+      </c>
+      <c r="O65" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="P65" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q65" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="R65" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="S65" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="T65" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="U65" s="2" t="n">
+        <v>4</v>
+      </c>
+      <c r="V65" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="W65" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="X65" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="Y65" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="Z65" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="AA65" s="2" t="n">
         <v>9</v>
       </c>
-      <c r="O65" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="P65" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q65" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="R65" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="S65" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="T65" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="U65" s="2" t="n">
-        <v>1</v>
-      </c>
-      <c r="V65" s="2" t="n">
-        <v>1</v>
-      </c>
-      <c r="W65" s="2" t="n">
-        <v>1</v>
-      </c>
-      <c r="X65" s="2" t="n">
-        <v>8</v>
-      </c>
-      <c r="Y65" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="Z65" s="2" t="n">
-        <v>1</v>
-      </c>
-      <c r="AA65" s="2" t="n">
-        <v>1</v>
-      </c>
       <c r="AB65" s="2" t="n">
         <v>1</v>
       </c>
       <c r="AC65" s="2" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AD65" s="2" t="n">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="AE65" s="2" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AF65" s="2" t="n">
         <v>1</v>
@@ -8990,19 +8990,19 @@
         <v>0</v>
       </c>
       <c r="AH65" s="2" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AI65" s="2" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AJ65" s="2" t="n">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="AK65" s="2" t="n">
         <v>1</v>
       </c>
       <c r="AL65" s="2" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AM65" s="2" t="inlineStr">
         <is>
